--- a/biology/Botanique/Gymnocarpium/Gymnocarpium.xlsx
+++ b/biology/Botanique/Gymnocarpium/Gymnocarpium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnocarpium est un genre de fougères.
 La position systématique du genre est discutée. Il est souvent rangé dans la famille des Woodsiaceae ou des Thelypteridaceae, parfois aussi dans celle des Dryopteridaceae.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gymnocarpium × achriosporum Sarvela
 Gymnocarpium appalachianum Pryer
